--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2706885.17966997</v>
+        <v>2811064.814121041</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.29515656310171</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>57.81578986397645</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>110.3037910767745</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.44051947539907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>290.8263485681712</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>207.5754705974937</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>98.76492394485743</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>51.56887637424928</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>287.3420737716221</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>17.18363018800063</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.98323803530042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>103.0130623645179</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I13" t="n">
-        <v>5.421623586788808</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833859</v>
+        <v>18.52833786981416</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.12712756824212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189098</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833853</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>90.85912858529922</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.3950726440254</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>124.5931157466106</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.06209150957563</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.00788511618104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4319,19 +4321,19 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839473</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.344253709365</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2223.663093852924</v>
+        <v>594.3085867387015</v>
       </c>
       <c r="C4" t="n">
-        <v>2223.663093852924</v>
+        <v>425.3724038107946</v>
       </c>
       <c r="D4" t="n">
-        <v>2073.546454440588</v>
+        <v>275.2557643984588</v>
       </c>
       <c r="E4" t="n">
-        <v>1925.633360858195</v>
+        <v>275.2557643984588</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360285</v>
+        <v>275.2557643984588</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.7753643667</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763053</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.322864763053</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.322864763053</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>2532.905694726092</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X4" t="n">
-        <v>2304.916143828074</v>
+        <v>996.7496307124713</v>
       </c>
       <c r="Y4" t="n">
-        <v>2223.663093852924</v>
+        <v>775.9570515689412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2257.256030805453</v>
+        <v>2269.968910186251</v>
       </c>
       <c r="C5" t="n">
-        <v>1888.293513865041</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1530.027815258291</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1144.239562660047</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>733.2536578704392</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>318.1812077154356</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066533</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805453</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.256030805453</v>
+        <v>2656.568750250373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>872.3234075408147</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>872.3234075408147</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408147</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.3234075408147</v>
+        <v>310.7277411117484</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952.040104645722</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C8" t="n">
-        <v>1583.077587705311</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D8" t="n">
-        <v>1224.81188909856</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="E8" t="n">
-        <v>1224.81188909856</v>
+        <v>909.9276735868962</v>
       </c>
       <c r="F8" t="n">
-        <v>813.8259843089527</v>
+        <v>498.9417687972886</v>
       </c>
       <c r="G8" t="n">
-        <v>398.7535341539491</v>
+        <v>83.86931864228507</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>83.86931864228507</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645722</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>816.3848593606994</v>
+        <v>436.8275748897429</v>
       </c>
       <c r="C10" t="n">
-        <v>647.4486764327925</v>
+        <v>267.891391961836</v>
       </c>
       <c r="D10" t="n">
-        <v>497.3320370204567</v>
+        <v>267.891391961836</v>
       </c>
       <c r="E10" t="n">
-        <v>497.3320370204567</v>
+        <v>267.891391961836</v>
       </c>
       <c r="F10" t="n">
-        <v>350.4420895225463</v>
+        <v>267.891391961836</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>267.891391961836</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.177438504229</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y10" t="n">
-        <v>816.3848593606994</v>
+        <v>618.4760397199826</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892237</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768879</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944948</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F13" t="n">
-        <v>266.4891497944948</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G13" t="n">
-        <v>99.29305050937472</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H13" t="n">
-        <v>99.29305050937472</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>483.2206378535626</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998291</v>
+        <v>336.3306903556522</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5470,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5552,13 +5554,13 @@
         <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611464</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5983,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6060,22 +6062,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951537</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630498</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,70 +6597,70 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630498</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630498</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630498</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G31" t="n">
-        <v>2421.591387345378</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X31" t="n">
         <v>3160.164713532175</v>
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,28 +6715,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,13 +6788,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>2809.580065774029</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>2659.463426361693</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>2511.5503327793</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>2511.5503327793</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2511.5503327793</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="35">
@@ -6926,25 +6928,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7025,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9926444679666</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>486.0795508855734</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1896033876631</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>171.993504102543</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>171.993504102543</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2321.111451512978</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2101.509986535919</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,16 +7207,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,19 +7259,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,16 +7408,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7427,7 +7429,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7494,16 +7496,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>2815.530845237134</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>3990.063098351769</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>3735.378610145882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>3445.961440108921</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>3217.971889210904</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>2997.179310067374</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>3336.216066251167</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>3167.27988332326</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>3017.163243910925</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>2869.250150328532</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>2722.360202830621</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>2555.164103545501</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>2413.452272387699</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
   </sheetData>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I13" t="n">
-        <v>75.84421273177671</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393025</v>
+        <v>146.9958004224547</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.11969353038572</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393031</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>102.8768876993832</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.43558426092464</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>3.870763674540129</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>56.43317025503404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>98.55338150863673</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>6.257951202384476</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319385</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.8081118427</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184269</v>
-      </c>
       <c r="H4" t="n">
-        <v>13606.80811184262</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341468</v>
+        <v>-852113.0690341466</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934469</v>
+        <v>476631.6766934462</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.6766934462</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.14500115</v>
+        <v>225754.1450011497</v>
       </c>
       <c r="F6" t="n">
+        <v>551166.6068085054</v>
+      </c>
+      <c r="G6" t="n">
+        <v>551166.6068085049</v>
+      </c>
+      <c r="H6" t="n">
         <v>551166.6068085053</v>
       </c>
-      <c r="G6" t="n">
-        <v>551166.6068085054</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>551166.6068085051</v>
       </c>
-      <c r="I6" t="n">
-        <v>551166.6068085054</v>
-      </c>
       <c r="J6" t="n">
-        <v>333635.4044112277</v>
+        <v>333635.4044112278</v>
       </c>
       <c r="K6" t="n">
+        <v>551166.6068085053</v>
+      </c>
+      <c r="L6" t="n">
+        <v>551166.6068085053</v>
+      </c>
+      <c r="M6" t="n">
+        <v>466111.5788729933</v>
+      </c>
+      <c r="N6" t="n">
         <v>551166.606808505</v>
       </c>
-      <c r="L6" t="n">
-        <v>551166.6068085051</v>
-      </c>
-      <c r="M6" t="n">
-        <v>466111.5788729931</v>
-      </c>
-      <c r="N6" t="n">
-        <v>551166.6068085048</v>
-      </c>
       <c r="O6" t="n">
+        <v>551166.606808505</v>
+      </c>
+      <c r="P6" t="n">
         <v>551166.6068085053</v>
-      </c>
-      <c r="P6" t="n">
-        <v>551166.6068085051</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>362.4386851003788</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>291.4251788534366</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>55.72201718225368</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.1441338766957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>74.44654320283638</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>87.03229378982678</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>49.85054907335493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>167.0157769778455</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7.265690615698361</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>24.39329958492532</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>126.0425702237278</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.74195254980283</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.283470503043547e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31856,13 +31858,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32081,22 +32083,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32481,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175697</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5955196772182</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547055</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078237</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,19 +34216,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790297</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789214</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748314</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811064.814121041</v>
+        <v>2807052.204107048</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.29515656310171</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>303.5173063788884</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>110.3037910767745</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>207.7087768350829</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.8263485681712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>75.48297643885357</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039628</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.56887637424928</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>17.18363018800063</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>103.0130623645179</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039628</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8913819999774</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>100.5858322992708</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695327</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.52833786981416</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716562</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>70.58974991479204</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189098</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G28" t="n">
-        <v>62.6472505928856</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>90.85912858529922</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>124.5931157466106</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>247.9252424950642</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>75.00788511618104</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818512</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4415,16 +4415,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.3085867387015</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>425.3724038107946</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>275.2557643984588</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>275.2557643984588</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>275.2557643984588</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
         <v>163.8377936138381</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.739181610489</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7496307124713</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9570515689412</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2269.968910186251</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1255.676195092018</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250373</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2656.568750250373</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868962</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>498.9417687972886</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>83.86931864228507</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>83.86931864228507</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>436.8275748897429</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>267.891391961836</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>267.891391961836</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>267.891391961836</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>267.891391961836</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>267.891391961836</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4760397199826</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1174.766565373398</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925226</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>277.5052172074025</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761984</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.2503708482915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1337314359557</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>483.2206378535626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3306903556522</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650335</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,7 +6007,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913854</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900021</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>593.6115863900021</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>445.698492807609</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>298.8085453096986</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630499</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.516248701936</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2809.580065774029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2659.463426361693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2511.5503327793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2511.5503327793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2511.5503327793</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>637.9025067654818</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2321.111451512978</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2101.509986535919</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1812.434759880117</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1557.75027167423</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1268.333101637269</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X37" t="n">
-        <v>1040.343550739252</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y37" t="n">
-        <v>819.5509715957215</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2815.530845237134</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>3990.063098351769</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>3735.378610145882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3445.961440108921</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3217.971889210904</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>2997.179310067374</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3336.216066251167</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3167.27988332326</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3017.163243910925</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>2869.250150328532</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>2722.360202830621</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>2555.164103545501</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2413.452272387699</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3966.646661122954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3738.657110224937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3517.864531081407</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659174</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.70888054695308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.9958004224547</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.84421273177713</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G28" t="n">
-        <v>102.8768876993832</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.43558426092464</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.43317025503404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6.257951202384476</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442552</v>
@@ -26331,31 +26331,31 @@
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>1.246394276677165e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184284</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341466</v>
+        <v>-852113.0690341465</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934462</v>
+        <v>476631.6766934465</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934462</v>
+        <v>476631.6766934465</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.1450011497</v>
+        <v>225406.7657467935</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085054</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085049</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541479</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.6068085051</v>
+        <v>550819.2275541482</v>
       </c>
       <c r="J6" t="n">
-        <v>333635.4044112278</v>
+        <v>333288.0251568703</v>
       </c>
       <c r="K6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541482</v>
       </c>
       <c r="L6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="M6" t="n">
-        <v>466111.5788729933</v>
+        <v>465764.1996186363</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.606808505</v>
+        <v>550819.2275541483</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.606808505</v>
+        <v>550819.2275541478</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541482</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.4386851003788</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>103.358739362823</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.72201718225368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.87587651701185</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.44654320283638</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>331.3930693028578</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.32522828944181</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.0157769778455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.39329958492532</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921504</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.74195254980283</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944181</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28800,10 +28800,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.283470503043547e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>237.3557891543634</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899866</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>602.8420149078237</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>94.75954470991897</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>425.4542490066532</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.5003028244903</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2807052.204107048</v>
+        <v>2808812.734409834</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>303.5173063788884</v>
+        <v>305.9840058034983</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>241.2617668068166</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.7087768350829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>270.6799298994378</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>75.48297643885357</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88471653142353</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>37.59617708813222</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999774</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417097</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695327</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>54.27601060788857</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>70.58974991479204</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>201.0922951267423</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>247.9252424950642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>86.80636739625321</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495404</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495404</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.748203495404</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E2" t="n">
-        <v>1127.748203495404</v>
+        <v>790.659319924054</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4524,13 +4524,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
         <v>945.3964936596652</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.63871203243</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.676195092018</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="D5" t="n">
-        <v>897.4104964852677</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>897.4104964852677</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.63871203243</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373398</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928005</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349509</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349509</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6141,10 +6141,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.8412329032296</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1993.939015056514</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1704.863788400712</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W37" t="n">
-        <v>1183.271827775017</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X37" t="n">
-        <v>955.2822768769995</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.4896977334694</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600924</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.84421273177713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184282</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184283</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184279</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26447,7 +26447,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341465</v>
+        <v>-852113.0690341461</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.6766934462</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.6766934461</v>
       </c>
       <c r="E6" t="n">
-        <v>225406.7657467935</v>
+        <v>225719.4070757141</v>
       </c>
       <c r="F6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="G6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="H6" t="n">
-        <v>550819.2275541479</v>
+        <v>551131.8688830693</v>
       </c>
       <c r="I6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="J6" t="n">
-        <v>333288.0251568703</v>
+        <v>333600.6664857917</v>
       </c>
       <c r="K6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="L6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="M6" t="n">
-        <v>465764.1996186363</v>
+        <v>466076.8409475577</v>
       </c>
       <c r="N6" t="n">
-        <v>550819.2275541483</v>
+        <v>551131.8688830694</v>
       </c>
       <c r="O6" t="n">
-        <v>550819.2275541478</v>
+        <v>551131.8688830697</v>
       </c>
       <c r="P6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830696</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>103.358739362823</v>
+        <v>100.8920399382131</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.87587651701136</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.87587651701185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>84.0031117212452</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.3930693028578</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>198.6999368206713</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.429631170896</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944181</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.68896825005964e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543634</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32083,31 +32083,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899866</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991897</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066532</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
